--- a/실전  PG 개발 with Django.xlsx
+++ b/실전  PG 개발 with Django.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Event 앱" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="홈페이지" sheetId="6" r:id="rId5"/>
     <sheet name="홈페이지 URL" sheetId="5" r:id="rId6"/>
     <sheet name="앱 개선" sheetId="7" r:id="rId7"/>
+    <sheet name="Polls 앱" sheetId="8" r:id="rId8"/>
+    <sheet name="Polls 테이블" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="172">
   <si>
     <t>블로그 앱 - 작업/코딩 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,10 +259,6 @@
   </si>
   <si>
     <t>템플릿 파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,1177 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>backup_dt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DateTimeField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Backup Date'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>schedule_tm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Scheduled Time'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>schedule_nm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Schedule Name'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>nodename</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Schedule Name'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>domain_nm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Domain Name'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>start_tm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Start Time'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>end_tm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'End Time'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>taken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>IntegerField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Taken Time'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CharField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Backup Result'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>max_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>returncode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>IntegerField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Return Code'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>modify_dt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DateTimeField</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'MODIFY DATE'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>auto_now</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>backup_dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,6 +695,58 @@
   </si>
   <si>
     <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manager.py makemigrations Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manager.py startapp Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manager.py migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰 코딩하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>템플릿 파일 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/eventlog/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event 앱과 동일함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EventLog/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polls 앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manager.py startapp polls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manager.py makemigrations polls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manage.py sqlmigrate polls 0001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SQL 문장 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1899,42 +778,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF4EC9B0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF569CD6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1994,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2064,8 +907,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2437,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:E28"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2540,17 +1392,17 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +1410,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
@@ -2569,8 +1421,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2580,17 +1432,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="24"/>
+    <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="27"/>
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="24"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="27"/>
       <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2598,35 +1450,38 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="24"/>
+    <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="27"/>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="24"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="27"/>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="25"/>
+        <v>122</v>
+      </c>
+      <c r="G25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="28"/>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2636,8 +1491,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="24"/>
+    <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="27"/>
       <c r="D28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2645,25 +1500,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="24"/>
+    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="27"/>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="25"/>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="28"/>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
@@ -2674,9 +1535,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -2693,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2721,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2738,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -2777,217 +1638,162 @@
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="9" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="9" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="17" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="22" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="22" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="23" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3002,7 +1808,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3036,131 +1842,131 @@
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3208,46 +2014,46 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="27"/>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3255,11 +2061,11 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3267,14 +2073,14 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3284,11 +2090,11 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3296,11 +2102,11 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3308,11 +2114,11 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3331,7 +2137,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3345,7 +2151,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3359,7 +2165,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3373,7 +2179,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3407,7 +2213,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -3427,82 +2233,82 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3527,7 +2333,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3538,7 +2344,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3546,10 +2352,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3566,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3582,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -3603,48 +2409,57 @@
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="B7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -3693,82 +2508,82 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3782,7 +2597,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3793,7 +2608,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -3804,7 +2619,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3812,10 +2627,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3827,4 +2642,438 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="4.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.296875" customWidth="1"/>
+    <col min="5" max="5" width="32.3984375" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" customWidth="1"/>
+    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="27"/>
+      <c r="D6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="27"/>
+      <c r="D7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="27"/>
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="27"/>
+      <c r="D9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="28"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="27"/>
+      <c r="D12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="27"/>
+      <c r="D13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="28"/>
+      <c r="D14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/실전  PG 개발 with Django.xlsx
+++ b/실전  PG 개발 with Django.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Event 앱" sheetId="2" r:id="rId1"/>
     <sheet name="Event 테이블" sheetId="3" r:id="rId2"/>
     <sheet name="Event URL" sheetId="4" r:id="rId3"/>
-    <sheet name="블로그 앱" sheetId="1" r:id="rId4"/>
-    <sheet name="홈페이지" sheetId="6" r:id="rId5"/>
-    <sheet name="홈페이지 URL" sheetId="5" r:id="rId6"/>
-    <sheet name="앱 개선" sheetId="7" r:id="rId7"/>
-    <sheet name="Polls 앱" sheetId="8" r:id="rId8"/>
-    <sheet name="Polls 테이블" sheetId="9" r:id="rId9"/>
+    <sheet name="Remote 앱" sheetId="10" r:id="rId4"/>
+    <sheet name="Remote 테이블" sheetId="11" r:id="rId5"/>
+    <sheet name="블로그 앱" sheetId="1" r:id="rId6"/>
+    <sheet name="홈페이지" sheetId="6" r:id="rId7"/>
+    <sheet name="홈페이지 URL" sheetId="5" r:id="rId8"/>
+    <sheet name="앱 개선" sheetId="7" r:id="rId9"/>
+    <sheet name="Polls 앱" sheetId="8" r:id="rId10"/>
+    <sheet name="Polls 테이블" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="194">
   <si>
     <t>블로그 앱 - 작업/코딩 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +285,6 @@
   </si>
   <si>
     <t>post_archive.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostLV(ListView)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -747,6 +745,98 @@
   </si>
   <si>
     <t>(SQL 문장 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume_nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool_nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>due_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> default=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크아웃 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tape 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default="X"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금고 입고 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금고 출고 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogLV(ListView)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manager.py startapp Remote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python manager.py makemigrations Remote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote 앱 - 테이블 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safein_chk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safeout_chk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateField</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,6 +998,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1001,6 +1100,87 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6469380" y="739140"/>
+          <a:ext cx="3657917" cy="2339543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7911</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="739140"/>
+          <a:ext cx="3353091" cy="2674852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68897</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1291,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -1422,7 +1602,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1433,16 +1613,16 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="27"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="27"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1451,37 +1631,37 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="27"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="27"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="28"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1492,7 +1672,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="27"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1501,7 +1681,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="27"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1509,11 +1689,11 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="28"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -1537,7 +1717,7 @@
     </row>
     <row r="32" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -1554,7 +1734,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -1580,7 +1760,218 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="4.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.296875" customWidth="1"/>
+    <col min="5" max="5" width="32.3984375" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" customWidth="1"/>
+    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="30"/>
+      <c r="D6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="30"/>
+      <c r="D7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="30"/>
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="30"/>
+      <c r="D9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="31"/>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="30"/>
+      <c r="D12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="30"/>
+      <c r="D13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="31"/>
+      <c r="D14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1599,7 +1990,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1623,6 +2014,229 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -1638,162 +2252,162 @@
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +2422,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1842,13 +2456,13 @@
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -1856,7 +2470,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>60</v>
@@ -1867,7 +2481,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>61</v>
@@ -1878,7 +2492,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>62</v>
@@ -1886,87 +2500,87 @@
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1977,6 +2591,452 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="4.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.296875" customWidth="1"/>
+    <col min="5" max="5" width="32.3984375" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="30"/>
+      <c r="D22" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="30"/>
+      <c r="D23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="30"/>
+      <c r="D24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="30"/>
+      <c r="D25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="31"/>
+      <c r="D26" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="30"/>
+      <c r="D28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="30"/>
+      <c r="D29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="31"/>
+      <c r="D30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C27:C30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2014,46 +3074,46 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2061,11 +3121,11 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2073,14 +3133,14 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2090,11 +3150,11 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2102,11 +3162,11 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2114,11 +3174,11 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="28"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2137,7 +3197,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2151,7 +3211,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2165,7 +3225,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2179,7 +3239,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2213,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -2233,82 +3293,82 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="28"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2333,7 +3393,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2344,7 +3404,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2352,10 +3412,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2388,7 +3448,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -2409,57 +3469,57 @@
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +3529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2488,7 +3548,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -2508,82 +3568,82 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="28"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2597,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2608,7 +3668,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2619,7 +3679,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2627,10 +3687,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2642,438 +3702,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="4.296875" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" customWidth="1"/>
-    <col min="5" max="5" width="32.3984375" customWidth="1"/>
-    <col min="6" max="6" width="3.09765625" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="27"/>
-      <c r="D6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="27"/>
-      <c r="D7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="27"/>
-      <c r="D8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="27"/>
-      <c r="D9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="28"/>
-      <c r="D10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="27"/>
-      <c r="D12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="27"/>
-      <c r="D13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="28"/>
-      <c r="D14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
-    <col min="5" max="5" width="39.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/실전  PG 개발 with Django.xlsx
+++ b/실전  PG 개발 with Django.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SourceManage\testReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\SM-Project\VENV\testReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Event 앱" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="197">
   <si>
     <t>블로그 앱 - 작업/코딩 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,14 +796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>금고 입고 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금고 출고 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>log_list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,6 +829,26 @@
   </si>
   <si>
     <t>DateField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safein_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safeout_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null=True, blank=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사내금고 입고 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사내금고 출고 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,6 +1028,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1475,26 +1490,26 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.296875" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" customWidth="1"/>
-    <col min="5" max="5" width="32.3984375" customWidth="1"/>
-    <col min="6" max="6" width="3.09765625" customWidth="1"/>
+    <col min="1" max="2" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1517,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1512,77 +1527,77 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1605,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
@@ -1601,8 +1616,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1612,8 +1627,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="30"/>
+    <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="31"/>
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1621,8 +1636,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="30"/>
+    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="31"/>
       <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,8 +1645,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
+    <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="31"/>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1639,8 +1654,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
+    <row r="25" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="31"/>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1651,8 +1666,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="31"/>
+    <row r="26" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1660,8 +1675,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="32" t="s">
+    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1671,8 +1686,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="30"/>
+    <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="31"/>
       <c r="D28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1680,8 +1695,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="30"/>
+    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="31"/>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1692,8 +1707,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="31"/>
+    <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="32"/>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>161</v>
       </c>
@@ -1726,7 +1741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
@@ -1768,27 +1783,27 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.296875" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" customWidth="1"/>
-    <col min="5" max="5" width="32.3984375" customWidth="1"/>
-    <col min="6" max="6" width="3.09765625" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="3.125" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
@@ -1796,7 +1811,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1807,8 +1822,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -1818,8 +1833,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="30"/>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="31"/>
       <c r="D6" s="24" t="s">
         <v>6</v>
       </c>
@@ -1827,8 +1842,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="30"/>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="31"/>
       <c r="D7" s="24" t="s">
         <v>7</v>
       </c>
@@ -1836,8 +1851,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="30"/>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="31"/>
       <c r="D8" s="25" t="s">
         <v>8</v>
       </c>
@@ -1845,8 +1860,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="30"/>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="31"/>
       <c r="D9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1857,8 +1872,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="31"/>
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="32"/>
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
@@ -1866,8 +1881,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="32" t="s">
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -1877,8 +1892,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="30"/>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="31"/>
       <c r="D12" s="25" t="s">
         <v>13</v>
       </c>
@@ -1886,8 +1901,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="30"/>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="31"/>
       <c r="D13" s="24" t="s">
         <v>14</v>
       </c>
@@ -1898,8 +1913,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="31"/>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="32"/>
       <c r="D14" s="25" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +1931,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="25" t="s">
         <v>161</v>
       </c>
@@ -1938,7 +1953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25" t="s">
         <v>22</v>
       </c>
@@ -1949,7 +1964,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="25" t="s">
         <v>23</v>
       </c>
@@ -1979,27 +1994,27 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
@@ -2013,7 +2028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>124</v>
       </c>
@@ -2039,7 +2054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>126</v>
       </c>
@@ -2051,7 +2066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>125</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
@@ -2075,7 +2090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>133</v>
       </c>
@@ -2087,7 +2102,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>134</v>
       </c>
@@ -2099,7 +2114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>135</v>
       </c>
@@ -2111,7 +2126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
         <v>136</v>
       </c>
@@ -2125,7 +2140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>138</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>139</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
         <v>157</v>
       </c>
@@ -2161,7 +2176,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
         <v>153</v>
       </c>
@@ -2173,7 +2188,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>137</v>
       </c>
@@ -2202,27 +2217,27 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
@@ -2236,7 +2251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -2250,7 +2265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
@@ -2262,7 +2277,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
@@ -2274,7 +2289,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
@@ -2286,7 +2301,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
@@ -2298,7 +2313,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>133</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>134</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>135</v>
       </c>
@@ -2334,7 +2349,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>138</v>
       </c>
@@ -2360,7 +2375,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>139</v>
       </c>
@@ -2372,7 +2387,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>157</v>
       </c>
@@ -2384,7 +2399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
         <v>153</v>
       </c>
@@ -2396,7 +2411,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>137</v>
       </c>
@@ -2425,25 +2440,25 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="27.69921875" customWidth="1"/>
-    <col min="3" max="3" width="34.19921875" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
@@ -2454,18 +2469,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>57</v>
       </c>
@@ -2476,7 +2491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>58</v>
       </c>
@@ -2487,7 +2502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>59</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
@@ -2509,7 +2524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>70</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>71</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>68</v>
       </c>
@@ -2551,7 +2566,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>105</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>108</v>
       </c>
@@ -2573,12 +2588,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>80</v>
       </c>
@@ -2598,26 +2613,26 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.296875" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" customWidth="1"/>
-    <col min="5" max="5" width="32.3984375" customWidth="1"/>
-    <col min="6" max="6" width="3.09765625" customWidth="1"/>
+    <col min="1" max="2" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
@@ -2625,7 +2640,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2635,77 +2650,77 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
@@ -2713,7 +2728,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
@@ -2724,8 +2739,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -2735,8 +2750,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="30"/>
+    <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="31"/>
       <c r="D22" s="27" t="s">
         <v>6</v>
       </c>
@@ -2744,8 +2759,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="30"/>
+    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="31"/>
       <c r="D23" s="27" t="s">
         <v>7</v>
       </c>
@@ -2753,8 +2768,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
+    <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="31"/>
       <c r="D24" s="28" t="s">
         <v>8</v>
       </c>
@@ -2762,8 +2777,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
+    <row r="25" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="31"/>
       <c r="D25" s="27" t="s">
         <v>10</v>
       </c>
@@ -2771,11 +2786,11 @@
         <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="31"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
       <c r="D26" s="28" t="s">
         <v>6</v>
       </c>
@@ -2783,8 +2798,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="32" t="s">
+    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="29" t="s">
@@ -2794,8 +2809,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="30"/>
+    <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="31"/>
       <c r="D28" s="28" t="s">
         <v>13</v>
       </c>
@@ -2803,8 +2818,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="30"/>
+    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="31"/>
       <c r="D29" s="27" t="s">
         <v>14</v>
       </c>
@@ -2812,11 +2827,11 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="31"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="32"/>
       <c r="D30" s="28" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
@@ -2838,7 +2853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="28" t="s">
         <v>161</v>
       </c>
@@ -2849,7 +2864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="28" t="s">
         <v>22</v>
       </c>
@@ -2860,7 +2875,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="28" t="s">
         <v>23</v>
       </c>
@@ -2885,33 +2900,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
@@ -2925,7 +2940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>47</v>
       </c>
@@ -2939,19 +2954,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
         <v>171</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
         <v>172</v>
       </c>
@@ -2963,7 +2978,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>173</v>
       </c>
@@ -2975,7 +2990,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>174</v>
       </c>
@@ -2989,21 +3004,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>132</v>
@@ -3012,12 +3027,12 @@
         <v>182</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>132</v>
@@ -3026,7 +3041,35 @@
         <v>182</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>184</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3044,26 +3087,26 @@
       <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
-    <col min="5" max="5" width="1.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -3077,43 +3120,43 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="G6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3124,8 +3167,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="31"/>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3139,8 +3182,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3153,8 +3196,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3165,8 +3208,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3177,8 +3220,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3186,7 +3229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -3200,7 +3243,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3214,7 +3257,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -3228,7 +3271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
@@ -3262,26 +3305,26 @@
       <selection activeCell="D15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.69921875" customWidth="1"/>
+    <col min="5" max="5" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -3292,40 +3335,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3333,15 +3376,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="31"/>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3351,15 +3394,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3367,14 +3410,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -3385,7 +3428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3396,7 +3439,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -3407,7 +3450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
@@ -3438,25 +3481,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="27.69921875" customWidth="1"/>
-    <col min="3" max="3" width="34.19921875" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
@@ -3467,7 +3510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>84</v>
       </c>
@@ -3478,7 +3521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>163</v>
       </c>
@@ -3487,7 +3530,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>87</v>
       </c>
@@ -3496,7 +3539,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>88</v>
       </c>
@@ -3505,19 +3548,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>80</v>
       </c>
@@ -3537,26 +3580,26 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.69921875" customWidth="1"/>
+    <col min="5" max="5" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -3567,40 +3610,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3608,15 +3651,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="31"/>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3626,15 +3669,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3642,14 +3685,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -3660,7 +3703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3671,7 +3714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -3682,7 +3725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
